--- a/biology/Botanique/George_Gordon_(horticulteur)/George_Gordon_(horticulteur).xlsx
+++ b/biology/Botanique/George_Gordon_(horticulteur)/George_Gordon_(horticulteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Gordon est un botaniste britannique, né le 25 février 1806 à Lucan près de Dublin et mort le 11 octobre 1879 à Kew.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a travaillé pour la London Horticultural Society en tant que contremaître des jardins de la Horticultural Society à Chiswick en 1828, puis directeur des départements Hardy et Hothouse. Il devient associé à la Linnean Society of London en 1841.
 Avec Robert Pince Glendinning (1840-1906), il fait paraître The Pinetum en 1858 (auquel s’ajoutera un supplément en 1862) et assiste John Claudius Loudon (1783-1843) pour son Arboretum et Fruticetum Britannicum (1838). Il décrit de nombreux spécimens de conifères récoltés par Karl Theodor Hartweg (1812-1871) au Mexique et en Californie.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists including Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
